--- a/src/metadata/grouped/GroupedBy:['Target']/tau_OH(max)/Metadata:tau_OH(max).xlsx
+++ b/src/metadata/grouped/GroupedBy:['Target']/tau_OH(max)/Metadata:tau_OH(max).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -977,43 +977,43 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8543209876543211</v>
+        <v>0.6948106060606061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8543209876543211</v>
+        <v>0.6948106060606061</v>
       </c>
       <c r="D4" t="n">
-        <v>2.406296296296296</v>
+        <v>9.45771212121212</v>
       </c>
       <c r="E4" t="n">
-        <v>2.413888888888889</v>
+        <v>9.649909090909091</v>
       </c>
       <c r="F4" t="n">
-        <v>940.8049506172839</v>
+        <v>1067.860234848485</v>
       </c>
       <c r="G4" t="n">
-        <v>1361.083351851852</v>
+        <v>1198.31046969697</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7892142509092593</v>
+        <v>0.7638503355424242</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03457080912160494</v>
+        <v>0.004496421938636364</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8784031631555554</v>
+        <v>0.7881209785613636</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8717225921598766</v>
+        <v>0.6594244160287879</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7961969075290124</v>
+        <v>0.8795300019325758</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7441637040611111</v>
+        <v>0.7160489864189393</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7223995692734568</v>
+        <v>0.7699888151469697</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1022,37 +1022,37 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="S4" t="n">
-        <v>782.759</v>
+        <v>974.98</v>
       </c>
       <c r="T4" t="n">
-        <v>1266.34</v>
+        <v>1040</v>
       </c>
       <c r="U4" t="n">
-        <v>-1</v>
+        <v>0.4141569367</v>
       </c>
       <c r="V4" t="n">
-        <v>-1</v>
+        <v>0.0001081562</v>
       </c>
       <c r="W4" t="n">
-        <v>-1</v>
+        <v>0.2841792758</v>
       </c>
       <c r="X4" t="n">
-        <v>-1</v>
+        <v>0.3241452063</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1</v>
+        <v>0.0289887956</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1</v>
+        <v>0.1047507834</v>
       </c>
       <c r="AA4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>2</v>
@@ -1061,43 +1061,43 @@
         <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.133</v>
+        <v>150</v>
       </c>
       <c r="AE4" t="n">
-        <v>10.133</v>
+        <v>150</v>
       </c>
       <c r="AF4" t="n">
-        <v>1038</v>
+        <v>1180.68</v>
       </c>
       <c r="AG4" t="n">
-        <v>1477.778</v>
+        <v>1311</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9714886309</v>
+        <v>0.9646040933</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0153245443</v>
+        <v>0.0175630638</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9979321354</v>
+        <v>0.9961060343</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.9954534551000001</v>
+        <v>0.9906514389</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.9847410997</v>
+        <v>0.9761792825</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.9801213859</v>
+        <v>0.9594922487999999</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.9931258005</v>
+        <v>0.9912285399</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.013</v>
@@ -1106,112 +1106,112 @@
         <v>1.013</v>
       </c>
       <c r="AS4" t="n">
-        <v>950</v>
+        <v>1096.065</v>
       </c>
       <c r="AT4" t="n">
-        <v>1375</v>
+        <v>1199</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.8650541501</v>
+        <v>0.7794462998</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0016242314</v>
+        <v>0.0041940604</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.9806151176</v>
+        <v>0.79371319555</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.9740522073</v>
+        <v>0.5542267312</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9214076757</v>
+        <v>0.9245966694</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.8230364411</v>
+        <v>0.7594082165</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.80891023105</v>
+        <v>0.8707088451</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.4753682803017372</v>
+        <v>0.4877029212836821</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.4753682803017372</v>
+        <v>0.4877029212836821</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.243697204027338</v>
+        <v>18.69407161263907</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.247945449011044</v>
+        <v>18.77693725338685</v>
       </c>
       <c r="BF4" t="n">
-        <v>40.24053227343946</v>
+        <v>49.18281013252707</v>
       </c>
       <c r="BG4" t="n">
-        <v>43.3643929024112</v>
+        <v>77.01735179403079</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.3590925263436285</v>
+        <v>0.1101743745017771</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.1899374316102898</v>
+        <v>0.003463791703445257</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.3782413983456537</v>
+        <v>0.1703403634955478</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.3793697648599612</v>
+        <v>0.2155958198795459</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.401352774893089</v>
+        <v>0.1415432709863219</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.3573662194084316</v>
+        <v>0.1573247406747775</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.3719635827742806</v>
+        <v>0.240301880872243</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.225975001917031</v>
+        <v>0.2378541394286375</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.225975001917031</v>
+        <v>0.2378541394286375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>10.52157155141477</v>
+        <v>349.468313458478</v>
       </c>
       <c r="BR4" t="n">
-        <v>10.54914963975155</v>
+        <v>352.5733726176268</v>
       </c>
       <c r="BS4" t="n">
-        <v>1619.300437649722</v>
+        <v>2418.948812532208</v>
       </c>
       <c r="BT4" t="n">
-        <v>1880.47057179469</v>
+        <v>5931.672477365498</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1289474424758495</v>
+        <v>0.01213839279685783</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.03607622792671351</v>
+        <v>1.19978529648562e-05</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.1430665554224755</v>
+        <v>0.02901583943579537</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.1439214184899023</v>
+        <v>0.04648155754953361</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.1610840499143826</v>
+        <v>0.02003449756150736</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.1277106147742752</v>
+        <v>0.02475107402838598</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.1383569069102791</v>
+        <v>0.05774499395073767</v>
       </c>
       <c r="CB4" t="n">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -1461,241 +1461,241 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6440243902439025</v>
+        <v>0.5147297297297297</v>
       </c>
       <c r="C6" t="n">
-        <v>3.066463414634146</v>
+        <v>24.83905405405405</v>
       </c>
       <c r="D6" t="n">
-        <v>9.450219512195122</v>
+        <v>11.4437027027027</v>
       </c>
       <c r="E6" t="n">
-        <v>9.450219512195122</v>
+        <v>11.57235135135135</v>
       </c>
       <c r="F6" t="n">
-        <v>353.0731707317073</v>
+        <v>1085.737837837838</v>
       </c>
       <c r="G6" t="n">
-        <v>353.0731707317073</v>
+        <v>1911.486486486486</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8218782454292682</v>
+        <v>0.8422508236459459</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01960091641219512</v>
+        <v>0.004047633908108109</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8330293996463415</v>
+        <v>0.8962683031432432</v>
       </c>
       <c r="K6" t="n">
-        <v>0.763313219202439</v>
+        <v>0.814384108745946</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8582280089219512</v>
+        <v>0.9216694617108109</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7257257355170731</v>
+        <v>0.7662450083513513</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8754865546365853</v>
+        <v>0.8274690299891891</v>
       </c>
       <c r="O6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="S6" t="n">
-        <v>250</v>
+        <v>882</v>
       </c>
       <c r="T6" t="n">
-        <v>250</v>
+        <v>1702</v>
       </c>
       <c r="U6" t="n">
-        <v>-1</v>
+        <v>0.5970137135</v>
       </c>
       <c r="V6" t="n">
-        <v>-1</v>
+        <v>0.0003933617</v>
       </c>
       <c r="W6" t="n">
-        <v>-1</v>
+        <v>0.5963632551</v>
       </c>
       <c r="X6" t="n">
-        <v>-1</v>
+        <v>0.5716645666</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1</v>
+        <v>0.7073499865</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1</v>
+        <v>0.5126257609</v>
       </c>
       <c r="AA6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AD6" t="n">
-        <v>150</v>
+        <v>50.663</v>
       </c>
       <c r="AE6" t="n">
-        <v>150</v>
+        <v>50.663</v>
       </c>
       <c r="AF6" t="n">
-        <v>484</v>
+        <v>1200</v>
       </c>
       <c r="AG6" t="n">
-        <v>484</v>
+        <v>2374</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9507240849</v>
+        <v>0.9594318944</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0145067534</v>
+        <v>0.0121578455</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.9895781236</v>
+        <v>0.9983894842</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.9573593666</v>
+        <v>0.9957018801</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.9610620402</v>
+        <v>0.9698015395</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.8932650136</v>
+        <v>0.9183909926</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9922334541</v>
+        <v>0.982625636</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.013</v>
+        <v>1.621</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.013</v>
+        <v>1.86</v>
       </c>
       <c r="AS6" t="n">
-        <v>353</v>
+        <v>1072.6</v>
       </c>
       <c r="AT6" t="n">
-        <v>353</v>
+        <v>1924.29</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9049020785</v>
+        <v>0.8510022614</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.004013299</v>
+        <v>0.0041723836</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.9120904661</v>
+        <v>0.9088538735</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.8387392524</v>
+        <v>0.7662399797</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.9216126322</v>
+        <v>0.9418624665999999</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.8195266705000001</v>
+        <v>0.7861768278</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.9630253314</v>
+        <v>0.9017174178</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.2110841642337101</v>
+        <v>0.4245744698877695</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.457002592611986</v>
+        <v>43.2011072645816</v>
       </c>
       <c r="BD6" t="n">
-        <v>32.4031161144358</v>
+        <v>18.21456647372717</v>
       </c>
       <c r="BE6" t="n">
-        <v>32.4031161144358</v>
+        <v>18.14785075156011</v>
       </c>
       <c r="BF6" t="n">
-        <v>65.16302258332652</v>
+        <v>94.4747844411152</v>
       </c>
       <c r="BG6" t="n">
-        <v>65.16302258332652</v>
+        <v>144.408030482615</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.3080710630402415</v>
+        <v>0.08481076445710742</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.1569657022566555</v>
+        <v>0.002831100181821799</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.3108208923681603</v>
+        <v>0.1077099594981366</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.3096564224505683</v>
+        <v>0.1558566714522772</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.3040215181020082</v>
+        <v>0.05176327836859602</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.3071870510397832</v>
+        <v>0.0899764062457713</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.3243004216970186</v>
+        <v>0.1933762126487782</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.04455652439024391</v>
+        <v>0.1802634804804805</v>
       </c>
       <c r="BP6" t="n">
-        <v>2.122856554878049</v>
+        <v>1866.335668885886</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1049.961933925609</v>
+        <v>331.7704318258259</v>
       </c>
       <c r="BR6" t="n">
-        <v>1049.961933925609</v>
+        <v>329.3444869009008</v>
       </c>
       <c r="BS6" t="n">
-        <v>4246.219512195123</v>
+        <v>8925.484895195184</v>
       </c>
       <c r="BT6" t="n">
-        <v>4246.219512195123</v>
+        <v>20853.67926786786</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.09490777988274442</v>
+        <v>0.007192865767798956</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.02463823168492503</v>
+        <v>8.015128239511424e-06</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.09660962713253948</v>
+        <v>0.01160143537509023</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.09588709996488486</v>
+        <v>0.02429130203618307</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.09242908346904968</v>
+        <v>0.002679436987464761</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.09436388432651839</v>
+        <v>0.008095753680904072</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.1051707635128641</v>
+        <v>0.03739435961838547</v>
       </c>
       <c r="CB6" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -1703,241 +1703,241 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9702258064516129</v>
+        <v>0.6440243902439025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9702258064516129</v>
+        <v>3.066463414634146</v>
       </c>
       <c r="D7" t="n">
-        <v>10.23341935483871</v>
+        <v>9.450219512195122</v>
       </c>
       <c r="E7" t="n">
-        <v>10.39816129032258</v>
+        <v>9.450219512195122</v>
       </c>
       <c r="F7" t="n">
-        <v>1463.585483870968</v>
+        <v>353.0731707317073</v>
       </c>
       <c r="G7" t="n">
-        <v>1805.776451612903</v>
+        <v>353.0731707317073</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7536773520354839</v>
+        <v>0.8218782454292682</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006695139219354838</v>
+        <v>-0.01960091641219512</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7319749364935483</v>
+        <v>0.8330293996463415</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5846029925032258</v>
+        <v>0.763313219202439</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8920433738967742</v>
+        <v>0.8582280089219512</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8001952177580646</v>
+        <v>0.7257257355170731</v>
       </c>
       <c r="N7" t="n">
-        <v>0.756623795748387</v>
+        <v>0.8754865546365853</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.329</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.329</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="T7" t="n">
-        <v>1604.1</v>
+        <v>250</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2948813605</v>
+        <v>-1</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0003093007</v>
+        <v>-1</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0971090988</v>
+        <v>-1</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0682137911</v>
+        <v>-1</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2665514983</v>
+        <v>-1</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1236652135</v>
+        <v>-1</v>
       </c>
       <c r="AB7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="AE7" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="AF7" t="n">
-        <v>1875.56</v>
+        <v>484</v>
       </c>
       <c r="AG7" t="n">
-        <v>2107.01</v>
+        <v>484</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.953162429</v>
+        <v>0.9507240849</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0205058026</v>
+        <v>0.0145067534</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.9974062707</v>
+        <v>0.9895781236</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.992933812</v>
+        <v>0.9573593666</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.9759122342</v>
+        <v>0.9610620402</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9657967203</v>
+        <v>0.8932650136</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.9756852864</v>
+        <v>0.9922334541</v>
       </c>
       <c r="AO7" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.761</v>
+        <v>1.013</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.375</v>
+        <v>1.013</v>
       </c>
       <c r="AS7" t="n">
-        <v>1425.87</v>
+        <v>353</v>
       </c>
       <c r="AT7" t="n">
-        <v>1800</v>
+        <v>353</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.7946846841</v>
+        <v>0.9049020785</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.0047761764</v>
+        <v>0.004013299</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.791295608</v>
+        <v>0.9120904661</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.5684056891</v>
+        <v>0.8387392524</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.9421818052000001</v>
+        <v>0.9216126322</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.8363531419</v>
+        <v>0.8195266705000001</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.8794307609000001</v>
+        <v>0.9630253314</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.5994778677970477</v>
+        <v>0.2110841642337101</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.5994778677970477</v>
+        <v>1.457002592611986</v>
       </c>
       <c r="BD7" t="n">
-        <v>18.24434204856252</v>
+        <v>32.4031161144358</v>
       </c>
       <c r="BE7" t="n">
-        <v>18.17822646849205</v>
+        <v>32.4031161144358</v>
       </c>
       <c r="BF7" t="n">
-        <v>164.4488194918348</v>
+        <v>65.16302258332652</v>
       </c>
       <c r="BG7" t="n">
-        <v>120.3137789988713</v>
+        <v>65.16302258332652</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.1629730499669885</v>
+        <v>0.3080710630402415</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.005156916577235431</v>
+        <v>0.1569657022566555</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.2235259450995986</v>
+        <v>0.3108208923681603</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.2393819853400166</v>
+        <v>0.3096564224505683</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1374149207786933</v>
+        <v>0.3040215181020082</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.1826830399073955</v>
+        <v>0.3071870510397832</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.2423603429224405</v>
+        <v>0.3243004216970186</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.3593737139784947</v>
+        <v>0.04455652439024391</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.3593737139784947</v>
+        <v>2.122856554878049</v>
       </c>
       <c r="BQ7" t="n">
-        <v>332.8560167849463</v>
+        <v>1049.961933925609</v>
       </c>
       <c r="BR7" t="n">
-        <v>330.4479175397848</v>
+        <v>1049.961933925609</v>
       </c>
       <c r="BS7" t="n">
-        <v>27043.41423225806</v>
+        <v>4246.219512195123</v>
       </c>
       <c r="BT7" t="n">
-        <v>14475.40541698924</v>
+        <v>4246.219512195123</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.02656021501554253</v>
+        <v>0.09490777988274442</v>
       </c>
       <c r="BV7" t="n">
-        <v>2.65937885845656e-05</v>
+        <v>0.02463823168492503</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.04996384813266875</v>
+        <v>0.09660962713253948</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.05730373490532795</v>
+        <v>0.09588709996488486</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.01888286045261455</v>
+        <v>0.09242908346904968</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.03337309306980706</v>
+        <v>0.09436388432651839</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.05873853582148298</v>
+        <v>0.1051707635128641</v>
       </c>
       <c r="CB7" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -1945,189 +1945,241 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8</v>
+        <v>0.6422181069958848</v>
       </c>
       <c r="C8" t="n">
-        <v>4.03</v>
+        <v>0.6422181069958848</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>7.837423868312757</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7.892567901234568</v>
       </c>
       <c r="F8" t="n">
-        <v>3500</v>
+        <v>890.9687242798353</v>
       </c>
       <c r="G8" t="n">
-        <v>3500</v>
+        <v>1179.078925925926</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8895815919</v>
+        <v>0.8709269386329218</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0051060776</v>
+        <v>-0.0102177747</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8919059186</v>
+        <v>0.9395102727502058</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8175545769</v>
+        <v>0.9302453533954733</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9065359506</v>
+        <v>0.8794118266193416</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7898711318</v>
+        <v>0.7665747811127572</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9658109867</v>
+        <v>0.8549096989596707</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0.467</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.467</v>
       </c>
       <c r="S8" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8895815919</v>
+        <v>-1</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0051060776</v>
+        <v>-1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8919059186</v>
+        <v>-1</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8175545769</v>
+        <v>-1</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9065359506</v>
+        <v>-1</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.7898711318</v>
+        <v>-1</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9658109867</v>
+        <v>-1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.8</v>
+        <v>2.99</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.03</v>
+        <v>2.99</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="n">
-        <v>3500</v>
+        <v>986</v>
       </c>
       <c r="AG8" t="n">
-        <v>3500</v>
+        <v>1262</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.8895815919</v>
+        <v>0.9680961335</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0051060776</v>
+        <v>0.0167225395</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.8919059186</v>
+        <v>0.9973059754</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.8175545769</v>
+        <v>0.9934719576</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.9065359506</v>
+        <v>0.9862664711</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.7898711318</v>
+        <v>0.9603274182</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.9658109867</v>
+        <v>0.9943449702</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>4.03</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>9.869</v>
       </c>
       <c r="AR8" t="n">
-        <v>1</v>
+        <v>9.869</v>
       </c>
       <c r="AS8" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="AT8" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.8895815919</v>
+        <v>0.915602657</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0051060776</v>
+        <v>0.0016704548</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.8919059186</v>
+        <v>0.9895783199</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.8175545769</v>
+        <v>0.9823400682</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.9065359506</v>
+        <v>0.9387592451</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.7898711318</v>
+        <v>0.7999984017</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.9658109867</v>
-      </c>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr"/>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
-      <c r="BX8" t="inlineStr"/>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
+        <v>0.9023517037</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.4509912472823916</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.4509912472823916</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>4.597166662151074</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>4.75408737130553</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>53.49973891588905</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>48.29760768165799</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.2225115017336256</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.1109076696325963</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.2352635503594669</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.2431009434359486</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.2585608950203079</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.2163400810682947</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.2352702367780324</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.2033931051253274</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.2033931051253274</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>21.13394131959324</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>22.60134673400673</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>2862.222064068294</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>2332.658907771348</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.04951136840375326</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.01230051118333311</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.05534893812774142</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.05909806869944827</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.06685373643370268</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.04680303067663635</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.05535208431359144</v>
+      </c>
       <c r="CB8" t="n">
-        <v>1</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9">
@@ -2135,241 +2187,189 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6422181069958848</v>
+        <v>0.8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6422181069958848</v>
+        <v>4.03</v>
       </c>
       <c r="D9" t="n">
-        <v>7.837423868312757</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>7.892567901234568</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>890.9687242798353</v>
+        <v>3500</v>
       </c>
       <c r="G9" t="n">
-        <v>1179.078925925926</v>
+        <v>3500</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8709269386329218</v>
+        <v>0.8895815919</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0102177747</v>
+        <v>0.0051060776</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9395102727502058</v>
+        <v>0.8919059186</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9302453533954733</v>
+        <v>0.8175545769</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8794118266193416</v>
+        <v>0.9065359506</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7665747811127572</v>
+        <v>0.7898711318</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8549096989596707</v>
+        <v>0.9658109867</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.467</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0.467</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="T9" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="U9" t="n">
-        <v>-1</v>
+        <v>0.8895815919</v>
       </c>
       <c r="V9" t="n">
-        <v>-1</v>
+        <v>0.0051060776</v>
       </c>
       <c r="W9" t="n">
-        <v>-1</v>
+        <v>0.8919059186</v>
       </c>
       <c r="X9" t="n">
-        <v>-1</v>
+        <v>0.8175545769</v>
       </c>
       <c r="Y9" t="n">
-        <v>-1</v>
+        <v>0.9065359506</v>
       </c>
       <c r="Z9" t="n">
-        <v>-1</v>
+        <v>0.7898711318</v>
       </c>
       <c r="AA9" t="n">
-        <v>-1</v>
+        <v>0.9658109867</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.99</v>
+        <v>4.03</v>
       </c>
       <c r="AD9" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>986</v>
+        <v>3500</v>
       </c>
       <c r="AG9" t="n">
-        <v>1262</v>
+        <v>3500</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.9680961335</v>
+        <v>0.8895815919</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0167225395</v>
+        <v>0.0051060776</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.9973059754</v>
+        <v>0.8919059186</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.9934719576</v>
+        <v>0.8175545769</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.9862664711</v>
+        <v>0.9065359506</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.9603274182</v>
+        <v>0.7898711318</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.9943449702</v>
+        <v>0.9658109867</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.5</v>
+        <v>4.03</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9.869</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
-        <v>9.869</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="AT9" t="n">
-        <v>1200</v>
+        <v>3500</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.915602657</v>
+        <v>0.8895815919</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0016704548</v>
+        <v>0.0051060776</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.9895783199</v>
+        <v>0.8919059186</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.9823400682</v>
+        <v>0.8175545769</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.9387592451</v>
+        <v>0.9065359506</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.7999984017</v>
+        <v>0.7898711318</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.9023517037</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0.4509912472823916</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0.4509912472823916</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>4.597166662151074</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>4.75408737130553</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>53.49973891588905</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>48.29760768165799</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>0.2225115017336256</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>0.1109076696325963</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>0.2352635503594669</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>0.2431009434359486</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>0.2585608950203079</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>0.2163400810682947</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>0.2352702367780324</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>0.2033931051253274</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>0.2033931051253274</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>21.13394131959324</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>22.60134673400673</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>2862.222064068294</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>2332.658907771348</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>0.04951136840375326</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>0.01230051118333311</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>0.05534893812774142</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0.05909806869944827</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>0.06685373643370268</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>0.04680303067663635</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>0.05535208431359144</v>
-      </c>
+        <v>0.9658109867</v>
+      </c>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
       <c r="CB9" t="n">
-        <v>243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2377,43 +2377,43 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5147297297297297</v>
+        <v>0.9702258064516129</v>
       </c>
       <c r="C10" t="n">
-        <v>24.83905405405405</v>
+        <v>0.9702258064516129</v>
       </c>
       <c r="D10" t="n">
-        <v>11.4437027027027</v>
+        <v>10.23341935483871</v>
       </c>
       <c r="E10" t="n">
-        <v>11.57235135135135</v>
+        <v>10.39816129032258</v>
       </c>
       <c r="F10" t="n">
-        <v>1085.737837837838</v>
+        <v>1463.585483870968</v>
       </c>
       <c r="G10" t="n">
-        <v>1911.486486486486</v>
+        <v>1805.776451612903</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8422508236459459</v>
+        <v>0.7536773520354839</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004047633908108109</v>
+        <v>0.006695139219354838</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8962683031432432</v>
+        <v>0.7319749364935483</v>
       </c>
       <c r="K10" t="n">
-        <v>0.814384108745946</v>
+        <v>0.5846029925032258</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9216694617108109</v>
+        <v>0.8920433738967742</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7662450083513513</v>
+        <v>0.8001952177580646</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8274690299891891</v>
+        <v>0.756623795748387</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2422,196 +2422,196 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.82</v>
+        <v>0.329</v>
       </c>
       <c r="R10" t="n">
-        <v>1.1</v>
+        <v>0.329</v>
       </c>
       <c r="S10" t="n">
-        <v>882</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
-        <v>1702</v>
+        <v>1604.1</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5970137135</v>
+        <v>0.2948813605</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0003933617</v>
+        <v>0.0003093007</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5963632551</v>
+        <v>0.0971090988</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5716645666</v>
+        <v>0.0682137911</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7073499865</v>
+        <v>0.2665514983</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5126257609</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.1236652135</v>
       </c>
       <c r="AB10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC10" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>50.663</v>
+        <v>64</v>
       </c>
       <c r="AE10" t="n">
-        <v>50.663</v>
+        <v>64</v>
       </c>
       <c r="AF10" t="n">
-        <v>1200</v>
+        <v>1875.56</v>
       </c>
       <c r="AG10" t="n">
-        <v>2374</v>
+        <v>2107.01</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.9594318944</v>
+        <v>0.953162429</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0121578455</v>
+        <v>0.0205058026</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.9983894842</v>
+        <v>0.9974062707</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.9957018801</v>
+        <v>0.992933812</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.9698015395</v>
+        <v>0.9759122342</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.9183909926</v>
+        <v>0.9657967203</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.982625636</v>
+        <v>0.9756852864</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.621</v>
+        <v>2.761</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.86</v>
+        <v>3.375</v>
       </c>
       <c r="AS10" t="n">
-        <v>1072.6</v>
+        <v>1425.87</v>
       </c>
       <c r="AT10" t="n">
-        <v>1924.29</v>
+        <v>1800</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.8510022614</v>
+        <v>0.7946846841</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0041723836</v>
+        <v>0.0047761764</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.9088538735</v>
+        <v>0.791295608</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.7662399797</v>
+        <v>0.5684056891</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.9418624665999999</v>
+        <v>0.9421818052000001</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.7861768278</v>
+        <v>0.8363531419</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.9017174178</v>
+        <v>0.8794307609000001</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.4245744698877695</v>
+        <v>0.5994778677970477</v>
       </c>
       <c r="BC10" t="n">
-        <v>43.2011072645816</v>
+        <v>0.5994778677970477</v>
       </c>
       <c r="BD10" t="n">
-        <v>18.21456647372717</v>
+        <v>18.24434204856252</v>
       </c>
       <c r="BE10" t="n">
-        <v>18.14785075156011</v>
+        <v>18.17822646849205</v>
       </c>
       <c r="BF10" t="n">
-        <v>94.4747844411152</v>
+        <v>164.4488194918348</v>
       </c>
       <c r="BG10" t="n">
-        <v>144.408030482615</v>
+        <v>120.3137789988713</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.08481076445710742</v>
+        <v>0.1629730499669885</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.002831100181821799</v>
+        <v>0.005156916577235431</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.1077099594981366</v>
+        <v>0.2235259450995986</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.1558566714522772</v>
+        <v>0.2393819853400166</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.05176327836859602</v>
+        <v>0.1374149207786933</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0899764062457713</v>
+        <v>0.1826830399073955</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.1933762126487782</v>
+        <v>0.2423603429224405</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.1802634804804805</v>
+        <v>0.3593737139784947</v>
       </c>
       <c r="BP10" t="n">
-        <v>1866.335668885886</v>
+        <v>0.3593737139784947</v>
       </c>
       <c r="BQ10" t="n">
-        <v>331.7704318258259</v>
+        <v>332.8560167849463</v>
       </c>
       <c r="BR10" t="n">
-        <v>329.3444869009008</v>
+        <v>330.4479175397848</v>
       </c>
       <c r="BS10" t="n">
-        <v>8925.484895195184</v>
+        <v>27043.41423225806</v>
       </c>
       <c r="BT10" t="n">
-        <v>20853.67926786786</v>
+        <v>14475.40541698924</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.007192865767798956</v>
+        <v>0.02656021501554253</v>
       </c>
       <c r="BV10" t="n">
-        <v>8.015128239511424e-06</v>
+        <v>2.65937885845656e-05</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.01160143537509023</v>
+        <v>0.04996384813266875</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.02429130203618307</v>
+        <v>0.05730373490532795</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.002679436987464761</v>
+        <v>0.01888286045261455</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.008095753680904072</v>
+        <v>0.03337309306980706</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.03739435961838547</v>
+        <v>0.05873853582148298</v>
       </c>
       <c r="CB10" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -2619,43 +2619,43 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>19.167225</v>
+        <v>0.8543209876543211</v>
       </c>
       <c r="C11" t="n">
-        <v>19.167225</v>
+        <v>0.8543209876543211</v>
       </c>
       <c r="D11" t="n">
-        <v>6.162016666666667</v>
+        <v>2.406296296296296</v>
       </c>
       <c r="E11" t="n">
-        <v>6.288600000000001</v>
+        <v>2.413888888888889</v>
       </c>
       <c r="F11" t="n">
-        <v>1117.090416666667</v>
+        <v>940.8049506172839</v>
       </c>
       <c r="G11" t="n">
-        <v>1427.547166666667</v>
+        <v>1361.083351851852</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8278050562116667</v>
+        <v>0.7892142509092593</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004152125225833333</v>
+        <v>-0.03457080912160494</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9021874949341666</v>
+        <v>0.8784031631555554</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8479366106425</v>
+        <v>0.8717225921598766</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8768211850416667</v>
+        <v>0.7961969075290124</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7733797654008333</v>
+        <v>0.7441637040611111</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7832526406524999</v>
+        <v>0.7223995692734568</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2670,76 +2670,76 @@
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>950</v>
+        <v>782.759</v>
       </c>
       <c r="T11" t="n">
-        <v>1300</v>
+        <v>1266.34</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4649397051</v>
+        <v>-1</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0002641955</v>
+        <v>-1</v>
       </c>
       <c r="W11" t="n">
-        <v>0.55060393</v>
+        <v>-1</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3918447426</v>
+        <v>-1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0335877087</v>
+        <v>-1</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.4287192097</v>
+        <v>-1</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0986330614</v>
+        <v>-1</v>
       </c>
       <c r="AB11" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="AC11" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>64</v>
+        <v>10.133</v>
       </c>
       <c r="AE11" t="n">
-        <v>64</v>
+        <v>10.133</v>
       </c>
       <c r="AF11" t="n">
-        <v>1300</v>
+        <v>1038</v>
       </c>
       <c r="AG11" t="n">
-        <v>1650</v>
+        <v>1477.778</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.9612811595</v>
+        <v>0.9714886309</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0145091733</v>
+        <v>0.0153245443</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.9969526648</v>
+        <v>0.9979321354</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.9911911353</v>
+        <v>0.9954534551000001</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.9896239704000001</v>
+        <v>0.9847410997</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.9435026164</v>
+        <v>0.9801213859</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.9870299435</v>
+        <v>0.9931258005</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.013</v>
@@ -2748,112 +2748,112 @@
         <v>1.013</v>
       </c>
       <c r="AS11" t="n">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="AT11" t="n">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.83898079625</v>
+        <v>0.8650541501</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0025519669</v>
+        <v>0.0016242314</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.978462436</v>
+        <v>0.9806151176</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.968384983</v>
+        <v>0.9740522073</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.9308542899</v>
+        <v>0.9214076757</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.78918265715</v>
+        <v>0.8230364411</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.86249363555</v>
+        <v>0.80891023105</v>
       </c>
       <c r="BB11" t="n">
-        <v>38.46119918258393</v>
+        <v>0.4753682803017372</v>
       </c>
       <c r="BC11" t="n">
-        <v>38.46119918258393</v>
+        <v>0.4753682803017372</v>
       </c>
       <c r="BD11" t="n">
-        <v>11.12677323568587</v>
+        <v>3.243697204027338</v>
       </c>
       <c r="BE11" t="n">
-        <v>11.27776613362353</v>
+        <v>3.247945449011044</v>
       </c>
       <c r="BF11" t="n">
-        <v>49.33917345923081</v>
+        <v>40.24053227343946</v>
       </c>
       <c r="BG11" t="n">
-        <v>68.18799640764965</v>
+        <v>43.3643929024112</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.1089874993124192</v>
+        <v>0.3590925263436285</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.003511215381006349</v>
+        <v>0.1899374316102898</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.1181841665217693</v>
+        <v>0.3782413983456537</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.1952677126795173</v>
+        <v>0.3793697648599612</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.200841068453403</v>
+        <v>0.401352774893089</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.117783217733159</v>
+        <v>0.3573662194084316</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.197517852484671</v>
+        <v>0.3719635827742806</v>
       </c>
       <c r="BO11" t="n">
-        <v>1479.263842562395</v>
+        <v>0.225975001917031</v>
       </c>
       <c r="BP11" t="n">
-        <v>1479.263842562395</v>
+        <v>0.225975001917031</v>
       </c>
       <c r="BQ11" t="n">
-        <v>123.8050826383753</v>
+        <v>10.52157155141477</v>
       </c>
       <c r="BR11" t="n">
-        <v>127.1880089647058</v>
+        <v>10.54914963975155</v>
       </c>
       <c r="BS11" t="n">
-        <v>2434.354037640066</v>
+        <v>1619.300437649722</v>
       </c>
       <c r="BT11" t="n">
-        <v>4649.602854089641</v>
+        <v>1880.47057179469</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.01187827500637457</v>
+        <v>0.1289474424758495</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.232863345181556e-05</v>
+        <v>0.03607622792671351</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.01396749721644529</v>
+        <v>0.1430665554224755</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.03812947961509051</v>
+        <v>0.1439214184899023</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.04033713477750452</v>
+        <v>0.1610840499143826</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.01387288637957675</v>
+        <v>0.1277106147742752</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.03901330205015625</v>
+        <v>0.1383569069102791</v>
       </c>
       <c r="CB11" t="n">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
@@ -2861,43 +2861,43 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6948106060606061</v>
+        <v>19.167225</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6948106060606061</v>
+        <v>19.167225</v>
       </c>
       <c r="D12" t="n">
-        <v>9.45771212121212</v>
+        <v>6.162016666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>9.649909090909091</v>
+        <v>6.288600000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1067.860234848485</v>
+        <v>1117.090416666667</v>
       </c>
       <c r="G12" t="n">
-        <v>1198.31046969697</v>
+        <v>1427.547166666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7638503355424242</v>
+        <v>0.8278050562116667</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004496421938636364</v>
+        <v>0.004152125225833333</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7881209785613636</v>
+        <v>0.9021874949341666</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6594244160287879</v>
+        <v>0.8479366106425</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8795300019325758</v>
+        <v>0.8768211850416667</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7160489864189393</v>
+        <v>0.7733797654008333</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7699888151469697</v>
+        <v>0.7832526406524999</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2906,82 +2906,82 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.987</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0.987</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>974.98</v>
+        <v>950</v>
       </c>
       <c r="T12" t="n">
-        <v>1040</v>
+        <v>1300</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4141569367</v>
+        <v>0.4649397051</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0001081562</v>
+        <v>0.0002641955</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2841792758</v>
+        <v>0.55060393</v>
       </c>
       <c r="X12" t="n">
-        <v>0.3241452063</v>
+        <v>0.3918447426</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0289887956</v>
+        <v>0.0335877087</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1047507834</v>
+        <v>0.4287192097</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>0.0986330614</v>
       </c>
       <c r="AB12" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AC12" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AD12" t="n">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="AE12" t="n">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="AF12" t="n">
-        <v>1180.68</v>
+        <v>1300</v>
       </c>
       <c r="AG12" t="n">
-        <v>1311</v>
+        <v>1650</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.9646040933</v>
+        <v>0.9612811595</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0175630638</v>
+        <v>0.0145091733</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.9961060343</v>
+        <v>0.9969526648</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.9906514389</v>
+        <v>0.9911911353</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.9761792825</v>
+        <v>0.9896239704000001</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.9594922487999999</v>
+        <v>0.9435026164</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.9912285399</v>
+        <v>0.9870299435</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.013</v>
@@ -2990,112 +2990,112 @@
         <v>1.013</v>
       </c>
       <c r="AS12" t="n">
-        <v>1096.065</v>
+        <v>1100</v>
       </c>
       <c r="AT12" t="n">
-        <v>1199</v>
+        <v>1400</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.7794462998</v>
+        <v>0.83898079625</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0041940604</v>
+        <v>0.0025519669</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.79371319555</v>
+        <v>0.978462436</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.5542267312</v>
+        <v>0.968384983</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.9245966694</v>
+        <v>0.9308542899</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.7594082165</v>
+        <v>0.78918265715</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.8707088451</v>
+        <v>0.86249363555</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.4877029212836821</v>
+        <v>38.46119918258393</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.4877029212836821</v>
+        <v>38.46119918258393</v>
       </c>
       <c r="BD12" t="n">
-        <v>18.69407161263907</v>
+        <v>11.12677323568587</v>
       </c>
       <c r="BE12" t="n">
-        <v>18.77693725338685</v>
+        <v>11.27776613362353</v>
       </c>
       <c r="BF12" t="n">
-        <v>49.18281013252707</v>
+        <v>49.33917345923081</v>
       </c>
       <c r="BG12" t="n">
-        <v>77.01735179403079</v>
+        <v>68.18799640764965</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.1101743745017771</v>
+        <v>0.1089874993124192</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.003463791703445257</v>
+        <v>0.003511215381006349</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.1703403634955478</v>
+        <v>0.1181841665217693</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.2155958198795459</v>
+        <v>0.1952677126795173</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.1415432709863219</v>
+        <v>0.200841068453403</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.1573247406747775</v>
+        <v>0.117783217733159</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.240301880872243</v>
+        <v>0.197517852484671</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.2378541394286375</v>
+        <v>1479.263842562395</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.2378541394286375</v>
+        <v>1479.263842562395</v>
       </c>
       <c r="BQ12" t="n">
-        <v>349.468313458478</v>
+        <v>123.8050826383753</v>
       </c>
       <c r="BR12" t="n">
-        <v>352.5733726176268</v>
+        <v>127.1880089647058</v>
       </c>
       <c r="BS12" t="n">
-        <v>2418.948812532208</v>
+        <v>2434.354037640066</v>
       </c>
       <c r="BT12" t="n">
-        <v>5931.672477365498</v>
+        <v>4649.602854089641</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.01213839279685783</v>
+        <v>0.01187827500637457</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.19978529648562e-05</v>
+        <v>1.232863345181556e-05</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.02901583943579537</v>
+        <v>0.01396749721644529</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.04648155754953361</v>
+        <v>0.03812947961509051</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.02003449756150736</v>
+        <v>0.04033713477750452</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.02475107402838598</v>
+        <v>0.01387288637957675</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.05774499395073767</v>
+        <v>0.03901330205015625</v>
       </c>
       <c r="CB12" t="n">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
